--- a/UFP Certificates.xlsx
+++ b/UFP Certificates.xlsx
@@ -476,10 +476,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>20250001</t>
-        </is>
+      <c r="A2" t="n">
+        <v>20250001</v>
       </c>
       <c r="B2" t="n">
         <v>2025</v>
